--- a/biology/Botanique/Rinorea/Rinorea.xlsx
+++ b/biology/Botanique/Rinorea/Rinorea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rinorea est un genre de plantes à fleurs de la famille des Violaceae et dont l'espèce type est Rinorea guianensis Aubl., 1775. 
 </t>
@@ -511,9 +523,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant[4] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant : 
 « RINOREA. (Tabula 93.)
 CAL. Perianthium monophyllum, villoſum, quinquepartitum ; laciniis oblongis, acutis. 
 COR. Petala decem, concava, ovata, oblonga ; quinque inferiora, quinque ſuperiora, interiora minora, omnia diſco infrà germen inſerta. 
@@ -550,7 +564,9 @@
           <t>Sélection d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Rinorea anguifera (Lour.) Kuntze
@@ -598,9 +614,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (05 avril 2022)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (05 avril 2022) :
 Rinorea abbreviata Achound. &amp; Bos
 Rinorea acutidens M.Brandt
 Rinorea adnata Chipp
@@ -879,7 +897,7 @@
 Rinorea zenkeri Engl.
 Rinorea zygomorpha H.E.Ballard &amp; Wahlert
 Rinorea ×subumbellata M.Brandt
-Selon Catalogue of Life                                   (15 août 2014)[5] :
+Selon Catalogue of Life                                   (15 août 2014) :
 Rinorea abbreviata
 Rinorea acommanthera
 Rinorea acutidens
@@ -1093,9 +1111,9 @@
 Rinorea zanagensis
 Rinorea zenkeri
 Rinorea zygomorpha
-Selon GRIN            (15 août 2014)[6] :
+Selon GRIN            (15 août 2014) :
 Rinorea viridifolia Rusby
-Selon The Plant List            (15 août 2014)[7] :
+Selon The Plant List            (15 août 2014) :
 Rinorea adnata Chipp
 Rinorea afzelii Engl.
 Rinorea albicaulis (Turcz.) S.F. Blake
@@ -1260,7 +1278,7 @@
 Rinorea zanagensis Achoundong, G. &amp; Bos
 Rinorea zenkeri Engl.
 Rinorea zygomorpha H.E. Ballard &amp; Wahlert
-Selon Tropicos                                           (15 août 2014)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (15 août 2014) (Attention liste brute contenant possiblement des synonymes) :
 Rinorea abidjanensis Aubrév. &amp; Pellegr.
 Rinorea adnata Chipp
 Rinorea adolfi-fridericii M. Brandt
@@ -1524,7 +1542,9 @@
           <t>Autres liens</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Rinorea kamerunensis
 Rinorea niccolifera</t>
